--- a/medicine/Mort/Liste_des_footballeurs_morts_sur_un_terrain/Liste_des_footballeurs_morts_sur_un_terrain.xlsx
+++ b/medicine/Mort/Liste_des_footballeurs_morts_sur_un_terrain/Liste_des_footballeurs_morts_sur_un_terrain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'article suivant est une liste des footballeurs morts sur un terrain de football durant une partie ou un entraînement, qui sont morts directement sur le terrain ou après une blessure survenue sur le terrain. Face à l'augmentation des morts, la FIFA annonce le 31 août 2007 que des examens cardio-vasculaires seront effectués[1], une mesure qui était déjà en place dans certains pays depuis quelques années, comme en Italie. Une étude publiée dans le British Journal of Sports Medicine démontre que chaque année, entre 2014 et 2018, une centaine de joueurs de football sont victimes d'une mort subite au cours d'un match ou jusqu'à une heure et demie après. Cela entraîne le décès dans 76 % des cas[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'article suivant est une liste des footballeurs morts sur un terrain de football durant une partie ou un entraînement, qui sont morts directement sur le terrain ou après une blessure survenue sur le terrain. Face à l'augmentation des morts, la FIFA annonce le 31 août 2007 que des examens cardio-vasculaires seront effectués, une mesure qui était déjà en place dans certains pays depuis quelques années, comme en Italie. Une étude publiée dans le British Journal of Sports Medicine démontre que chaque année, entre 2014 et 2018, une centaine de joueurs de football sont victimes d'une mort subite au cours d'un match ou jusqu'à une heure et demie après. Cela entraîne le décès dans 76 % des cas.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
